--- a/ITProjectManagement/Course meterial/InductionDocument.xlsx
+++ b/ITProjectManagement/Course meterial/InductionDocument.xlsx
@@ -1962,7 +1962,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2123,13 +2123,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2235,7 +2228,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2392,6 +2385,7 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2406,8 +2400,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2857,31 +2849,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -9123,13 +9115,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -9924,13 +9916,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="51" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -10706,7 +10698,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10804,10 +10796,10 @@
       <c r="A10" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="72" t="s">
         <v>575</v>
       </c>
     </row>

--- a/ITProjectManagement/Course meterial/InductionDocument.xlsx
+++ b/ITProjectManagement/Course meterial/InductionDocument.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" tabRatio="782" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" tabRatio="782" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="580">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1956,6 +1956,15 @@
   </si>
   <si>
     <t>Cloud Storage</t>
+  </si>
+  <si>
+    <t>Criteria Query</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8lfWsJqPZyY&amp;list=PLzS3AYzXBoj-u_YsaYsf20zXRQoFp0jku</t>
+  </si>
+  <si>
+    <t>KK Java Tutorials Youtube</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2237,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2386,6 +2395,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2849,31 +2859,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -9115,13 +9125,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -9916,13 +9926,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="51" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -10522,10 +10532,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10613,59 +10623,70 @@
         <v>538</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+    <row r="10" spans="1:3" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>578</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
         <v>542</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
-        <v>548</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="70" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="70" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="70" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="70" t="s">
+        <v>549</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="70" t="s">
         <v>551</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="68" t="s">
         <v>540</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>539</v>
       </c>
     </row>
@@ -10677,19 +10698,20 @@
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B8" r:id="rId5"/>
     <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B16" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.youtube.com/playlist?list=PL6staZz89fj9VAEDVcFZIL40kcURasSF6"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.youtube.com/playlist?list=PL6staZz89fj9VAEDVcFZIL40kcURasSF6"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
     <hyperlink ref="B2" r:id="rId15"/>
     <hyperlink ref="B3" r:id="rId16"/>
+    <hyperlink ref="B10" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -10697,8 +10719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10788,7 +10810,7 @@
       <c r="B9" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="72" t="s">
         <v>572</v>
       </c>
     </row>

--- a/ITProjectManagement/Course meterial/InductionDocument.xlsx
+++ b/ITProjectManagement/Course meterial/InductionDocument.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" tabRatio="782" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" tabRatio="782" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Hibernate++" sheetId="8" r:id="rId7"/>
     <sheet name="GCP-GKE" sheetId="9" r:id="rId8"/>
     <sheet name="Jenkins CI" sheetId="5" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="604">
   <si>
     <t>Anodiam</t>
   </si>
@@ -1965,6 +1966,78 @@
   </si>
   <si>
     <t>KK Java Tutorials Youtube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bMvqaCP0PDo&amp;list=PLzS3AYzXBoj_o6sOu2CUnnSEk1e8Sb1op</t>
+  </si>
+  <si>
+    <t>Portworx</t>
+  </si>
+  <si>
+    <t>Kubernetes X 3</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Sourse</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Aniban</t>
+  </si>
+  <si>
+    <t>Anirban</t>
+  </si>
+  <si>
+    <t>Susanta</t>
+  </si>
+  <si>
+    <t>Jenkins Zero-Hero</t>
+  </si>
+  <si>
+    <t>Devops Boot Camp</t>
+  </si>
+  <si>
+    <t>in28mins</t>
+  </si>
+  <si>
+    <t>Ansible X 2</t>
+  </si>
+  <si>
+    <t>Hubernate</t>
+  </si>
+  <si>
+    <t>KK Java</t>
+  </si>
+  <si>
+    <t>Java Streaming</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Java Rest API</t>
+  </si>
+  <si>
+    <t>Anirban (Cart)</t>
+  </si>
+  <si>
+    <t>Susanta (Cart)</t>
+  </si>
+  <si>
+    <t>GKE X 2</t>
+  </si>
+  <si>
+    <t>Linux Admin</t>
+  </si>
+  <si>
+    <t>Shell Script</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2310,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2396,6 +2469,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2859,31 +2938,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2944,6 +3023,186 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="76" t="s">
+        <v>603</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="75" t="s">
+        <v>593</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="75" t="s">
+        <v>594</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>592</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>597</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="75" t="s">
+        <v>598</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>599</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9125,13 +9384,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:5" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -9926,13 +10185,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="51" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="83" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -10532,10 +10791,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10682,12 +10941,23 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="68" t="s">
         <v>540</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -10709,9 +10979,10 @@
     <hyperlink ref="B2" r:id="rId15"/>
     <hyperlink ref="B3" r:id="rId16"/>
     <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="B18" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId18"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/ITProjectManagement/Course meterial/InductionDocument.xlsx
+++ b/ITProjectManagement/Course meterial/InductionDocument.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" tabRatio="782" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" tabRatio="782" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="TrainingRequirements" sheetId="2" r:id="rId2"/>
-    <sheet name="CI Setup" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
-    <sheet name="Docker" sheetId="4" r:id="rId5"/>
-    <sheet name="K8s" sheetId="7" r:id="rId6"/>
-    <sheet name="Hibernate++" sheetId="8" r:id="rId7"/>
-    <sheet name="GCP-GKE" sheetId="9" r:id="rId8"/>
-    <sheet name="Jenkins CI" sheetId="5" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId3"/>
+    <sheet name="CI Setup" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Docker" sheetId="4" r:id="rId6"/>
+    <sheet name="K8s" sheetId="7" r:id="rId7"/>
+    <sheet name="Hibernate++" sheetId="8" r:id="rId8"/>
+    <sheet name="GCP-GKE" sheetId="9" r:id="rId9"/>
+    <sheet name="Jenkins CI" sheetId="5" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="606">
   <si>
     <t>Anodiam</t>
   </si>
@@ -2038,6 +2039,12 @@
   </si>
   <si>
     <t>Shell Script</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qqx_wzMmFeA</t>
   </si>
 </sst>
 </file>
@@ -3029,9 +3036,179 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3963,6 +4140,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4708,7 +4914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W259"/>
   <sheetViews>
@@ -9356,7 +9562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E137"/>
   <sheetViews>
@@ -10156,7 +10362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
@@ -10789,7 +10995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -10986,7 +11192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -11111,174 +11317,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId10"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ITProjectManagement/Course meterial/InductionDocument.xlsx
+++ b/ITProjectManagement/Course meterial/InductionDocument.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" tabRatio="782" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7230" tabRatio="782" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="GCP-GKE" sheetId="9" r:id="rId9"/>
     <sheet name="Jenkins CI" sheetId="5" r:id="rId10"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId11"/>
+    <sheet name="Content" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrainingRequirements!$A$1:$C$36</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="652">
   <si>
     <t>Anodiam</t>
   </si>
@@ -2045,6 +2046,144 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Qqx_wzMmFeA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1bOhCMjUgQNdoAtRPV7y52A-vgaXI1ioV</t>
+  </si>
+  <si>
+    <t>ReactJs</t>
+  </si>
+  <si>
+    <t>ReactNative</t>
+  </si>
+  <si>
+    <t>SpringBoot</t>
+  </si>
+  <si>
+    <t>Tokenizing</t>
+  </si>
+  <si>
+    <t>REST API</t>
+  </si>
+  <si>
+    <t>HTML5</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Katalon</t>
+  </si>
+  <si>
+    <t>GCS</t>
+  </si>
+  <si>
+    <t>GCP MySQL</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>Database design</t>
+  </si>
+  <si>
+    <t>GKE</t>
+  </si>
+  <si>
+    <t>CICD Jenkins</t>
+  </si>
+  <si>
+    <t>Prometheous</t>
+  </si>
+  <si>
+    <t>Grafana</t>
+  </si>
+  <si>
+    <t>Itsio</t>
+  </si>
+  <si>
+    <t>Load Testing</t>
+  </si>
+  <si>
+    <t>Pen Testing</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Hasicorp Vaults</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Keras</t>
+  </si>
+  <si>
+    <t>Data Viz</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QFaFIcGhPoM&amp;list=PLC3y8-rFHvwgg3vaYJgHGnModB54rxOk3</t>
+  </si>
+  <si>
+    <t>ES6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n3zrCxB8sj8&amp;list=PLC3y8-rFHvwhI0V5mE9Vu6Nm-nap8EcjV&amp;index=1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/11_F1CjnJftkXex2hMz4SET93nyAI_Z2O</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j942wKiXFu8&amp;list=PL4cUxeGkcC9gZD-Tvwfod2gaISzfRiP9d&amp;index=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ur6I5m2nTvk&amp;list=PL4cUxeGkcC9ixPU-QkScoRBVxtPPzVjrQ</t>
+  </si>
+  <si>
+    <t>React Project</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Oi4v5uxTY5o&amp;list=PL4cUxeGkcC9iWstfXntcj8f-dFZ4UtlN3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=esVwR4lGwQE&amp;list=PLLnpHn493BHEqP3gD1pCJYhxX6v2gBZzj</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GLSSRtnNY0g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6RhOzQciVwI&amp;list=PL4cUxeGkcC9hNokByJilPg5g9m2APUePI</t>
+  </si>
+  <si>
+    <t>Context + Hooks</t>
+  </si>
+  <si>
+    <t>React Testing</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZcQyJ-gxke0&amp;list=PL4cUxeGkcC9jx2TTZk3IGWKSbtugYdrlu</t>
+  </si>
+  <si>
+    <t>Async</t>
+  </si>
+  <si>
+    <t>Doodley</t>
+  </si>
+  <si>
+    <t>Speechelo</t>
+  </si>
+  <si>
+    <t>Open Broadcaster Software</t>
+  </si>
+  <si>
+    <t>HTML CSS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hu-q2zYwEYs&amp;list=PL4cUxeGkcC9ivBf_eKCPIAYXWzLlPAm6G</t>
+  </si>
+  <si>
+    <t>Async Js</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2456,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2482,6 +2621,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2945,31 +3090,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3381,6 +3526,40 @@
     <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="82" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4140,30 +4319,411 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="83">
+        <v>0</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>649</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>605</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="83"/>
+      <c r="C3" s="15"/>
+      <c r="E3" s="82" t="s">
+        <v>645</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="H3" s="82" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="83"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="80">
+        <v>2</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>632</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="H5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="83"/>
+      <c r="C6" s="15"/>
+      <c r="E6" s="81" t="s">
+        <v>642</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="81" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="83"/>
+      <c r="C7" s="15"/>
+      <c r="E7" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="83"/>
+      <c r="C8" s="15"/>
+      <c r="E8" s="81" t="s">
+        <v>643</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="81" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="83">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>649</v>
+      </c>
+      <c r="D9" s="80">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>608</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="H9" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="83">
+        <v>2</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>604</v>
+      </c>
+      <c r="D10" s="80">
+        <v>5</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="83">
+        <v>3</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>651</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>644</v>
+      </c>
+      <c r="D11" s="80">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="83">
+        <v>4</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>632</v>
+      </c>
+      <c r="D12" s="80">
+        <v>7</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="83">
+        <v>5</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>607</v>
+      </c>
+      <c r="D13" s="80">
+        <v>8</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="83">
+        <v>6</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>642</v>
+      </c>
+      <c r="D14" s="80">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="83">
+        <v>7</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>637</v>
+      </c>
+      <c r="D15" s="80">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="83">
+        <v>8</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>643</v>
+      </c>
+      <c r="D16" s="80">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="83">
+        <v>9</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>608</v>
+      </c>
+      <c r="D17" s="80">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="80">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="80">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="80">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="80">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="80">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="80">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="83"/>
+      <c r="D24" s="80">
+        <v>19</v>
+      </c>
+      <c r="E24" s="79" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="80">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="80">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="80">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="80">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="80">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="80">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="80">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="80">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="80">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="80">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -9590,13 +10150,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:5" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
@@ -10391,13 +10951,13 @@
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="51" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
